--- a/col_names_new_vs_old.xlsx
+++ b/col_names_new_vs_old.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{124D1890-4DB5-4C5F-8A04-087CDCDBE83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{B389160B-9B61-4ABC-8A71-7E05026832F0}"/>
+    <workbookView xWindow="1840" yWindow="0" windowWidth="16710" windowHeight="14410" xr2:uid="{B389160B-9B61-4ABC-8A71-7E05026832F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3012D5FA-7466-45A4-B6E8-236EE0595B11}">
   <dimension ref="A2:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/col_names_new_vs_old.xlsx
+++ b/col_names_new_vs_old.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentuwsedu-my.sharepoint.com/personal/15024480_student_westernsydney_edu_au/Documents/PhD/Rwork/ethica_utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{124D1890-4DB5-4C5F-8A04-087CDCDBE83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{124D1890-4DB5-4C5F-8A04-087CDCDBE83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7404630A-7EA1-48A9-BD59-FD586D9BF56B}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="0" windowWidth="16710" windowHeight="14410" xr2:uid="{B389160B-9B61-4ABC-8A71-7E05026832F0}"/>
+    <workbookView xWindow="1840" yWindow="0" windowWidth="19980" windowHeight="14320" activeTab="1" xr2:uid="{B389160B-9B61-4ABC-8A71-7E05026832F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="201">
   <si>
     <t>&gt; names(df_list[[1]])</t>
   </si>
@@ -594,13 +596,58 @@
   </si>
   <si>
     <t xml:space="preserve">[31] "q17_num"                                                </t>
+  </si>
+  <si>
+    <t>logV</t>
+  </si>
+  <si>
+    <t>maqV</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>_1</t>
+  </si>
+  <si>
+    <t>_2</t>
+  </si>
+  <si>
+    <t>_3</t>
+  </si>
+  <si>
+    <t>_4</t>
+  </si>
+  <si>
+    <t>_5</t>
+  </si>
+  <si>
+    <t>_6</t>
+  </si>
+  <si>
+    <t>_7</t>
+  </si>
+  <si>
+    <t>_8</t>
+  </si>
+  <si>
+    <t>_9</t>
+  </si>
+  <si>
+    <t>_10</t>
+  </si>
+  <si>
+    <t>_11</t>
+  </si>
+  <si>
+    <t>_12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,8 +667,22 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +692,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -661,11 +728,87 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -977,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3012D5FA-7466-45A4-B6E8-236EE0595B11}">
   <dimension ref="A2:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2105,4 +2248,1097 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011202EB-0B1D-41C7-9D4D-F6F2DAFB5321}">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="56.7265625" customWidth="1"/>
+    <col min="2" max="6" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="69.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="G11" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="G12" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="G13" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="G14" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="G15" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="G16" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="G17" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="G18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="G20" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="G21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="G22" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="G23" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="G24" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="G25" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="G26" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="G27" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="G28" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="G29" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="G30" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="G31" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="G32" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="9"/>
+      <c r="G33" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="9"/>
+      <c r="G34" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="9"/>
+      <c r="G35" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="9"/>
+      <c r="G36" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D56" s="9"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:F24 B26:B55 A25:A55 C33:F55 D25:F32 C26:C32">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="_maq_">
+      <formula>NOT(ISERROR(SEARCH("_maq_",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B55">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C55">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6887C706-5BF3-4811-AA53-19C278637A8B}">
+  <dimension ref="A2:AA29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" t="s">
+        <v>188</v>
+      </c>
+      <c r="S2" t="s">
+        <v>188</v>
+      </c>
+      <c r="T2" t="s">
+        <v>188</v>
+      </c>
+      <c r="U2" t="s">
+        <v>188</v>
+      </c>
+      <c r="V2" t="s">
+        <v>188</v>
+      </c>
+      <c r="W2" t="s">
+        <v>188</v>
+      </c>
+      <c r="X2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>